--- a/Documentação/Tabelas/Identificação das VLAN's.xlsx
+++ b/Documentação/Tabelas/Identificação das VLAN's.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>Descrição da VLAN</t>
   </si>
@@ -119,13 +119,28 @@
     <t>?</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>A 1ª VLAN deve começar com o ID 10 e as seguintes VLAN'S devem somar 10 ao valor do id da VLAN anterior. Caso não seja possível continuar com este esquema. Então os Ids devem passar a ser ocupados do mais pequeno para o maior. O ID da VLAN de gestão da rede não segue estas normas e por omissão é o ID 99.  -&gt; Ler http://networkengineering.stackexchange.com/questions/3482/why-is-4096-the-max-value-for-vlans</t>
   </si>
   <si>
-    <t>É a soma de nº pcs + nº outros equipamentos???</t>
+    <t>Salas</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 11 e 12</t>
+  </si>
+  <si>
+    <t>6 e 7</t>
+  </si>
+  <si>
+    <t>13, 14 e 15</t>
+  </si>
+  <si>
+    <t>9 e 18</t>
+  </si>
+  <si>
+    <t>5 e 17</t>
+  </si>
+  <si>
+    <t>É a soma de nº pcs + nº outros equipamentos??? Ou é o nº de ips que uma vlan pode ter?</t>
   </si>
 </sst>
 </file>
@@ -170,7 +185,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -209,16 +227,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G10" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A1:G10"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:H10" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:H10"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="Descrição da VLAN" dataDxfId="7"/>
     <tableColumn id="2" name="Nome da VLAN" dataDxfId="6"/>
     <tableColumn id="3" name="VLAN ID" dataDxfId="5"/>
-    <tableColumn id="4" name="Número de PC's" dataDxfId="4"/>
-    <tableColumn id="5" name="Número de outros equipamentos" dataDxfId="3"/>
-    <tableColumn id="6" name="Número total com folga" dataDxfId="2"/>
-    <tableColumn id="7" name="Endereçamento IP" dataDxfId="1"/>
+    <tableColumn id="4" name="Salas" dataDxfId="4"/>
+    <tableColumn id="5" name="Número de PC's" dataDxfId="3"/>
+    <tableColumn id="6" name="Número de outros equipamentos" dataDxfId="2"/>
+    <tableColumn id="7" name="Número total com folga" dataDxfId="1"/>
+    <tableColumn id="8" name="Endereçamento IP" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -535,7 +554,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -544,9 +563,10 @@
     <col min="2" max="2" width="15.21875" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" customWidth="1"/>
     <col min="4" max="4" width="15.77734375" customWidth="1"/>
-    <col min="5" max="5" width="29.77734375" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" customWidth="1"/>
+    <col min="6" max="6" width="30.88671875" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.109375" customWidth="1"/>
   </cols>
@@ -562,15 +582,18 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
       <c r="M1" t="s">
@@ -590,16 +613,19 @@
       <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="1">
-        <v>11</v>
+      <c r="D2" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="E2" s="1">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="F2" s="1">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1"/>
       <c r="M2" t="s">
         <v>21</v>
       </c>
@@ -617,21 +643,24 @@
       <c r="C3" s="1">
         <v>20</v>
       </c>
-      <c r="D3" s="1">
-        <v>9</v>
+      <c r="D3" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E3" s="1">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="F3" s="1">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1"/>
       <c r="M3" t="s">
         <v>29</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -645,15 +674,18 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -665,16 +697,19 @@
       <c r="C5" s="1">
         <v>40</v>
       </c>
-      <c r="D5" s="1">
-        <v>4</v>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -687,15 +722,18 @@
         <v>50</v>
       </c>
       <c r="D6" s="1">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="1"/>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -708,15 +746,18 @@
         <v>60</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -728,16 +769,19 @@
       <c r="C8" s="1">
         <v>70</v>
       </c>
-      <c r="D8" s="1">
-        <v>2</v>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E8" s="1">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -749,16 +793,19 @@
       <c r="C9" s="1">
         <v>80</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -770,20 +817,23 @@
       <c r="C10" s="1">
         <v>99</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
+      <c r="D10" s="1">
+        <v>16</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F11" s="1" t="s">
-        <v>33</v>
+      <c r="G11" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Documentação/Tabelas/Identificação das VLAN's.xlsx
+++ b/Documentação/Tabelas/Identificação das VLAN's.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>Descrição da VLAN</t>
   </si>
@@ -141,13 +141,46 @@
   </si>
   <si>
     <t>É a soma de nº pcs + nº outros equipamentos??? Ou é o nº de ips que uma vlan pode ter?</t>
+  </si>
+  <si>
+    <t>1 telefone na sala electrica</t>
+  </si>
+  <si>
+    <t>1 telefone bar</t>
+  </si>
+  <si>
+    <t>vlans guest - wireless - autenticacao fica restringido</t>
+  </si>
+  <si>
+    <t>deixar portas nos switches livres</t>
+  </si>
+  <si>
+    <t>1 pc pode ser ligado ao ip phone e este ao pc se o ip phone fizer switchin</t>
+  </si>
+  <si>
+    <t>funcionalidades por vlan</t>
+  </si>
+  <si>
+    <t>isto e para sair, pq fica dependente da sala</t>
+  </si>
+  <si>
+    <t>Apoio informático junto ao desenvolvimento ?</t>
+  </si>
+  <si>
+    <t>ter 2 telefones na sala do servidor - é comum 2 pessoas estarem la a trabalhar</t>
+  </si>
+  <si>
+    <t>voip</t>
+  </si>
+  <si>
+    <t>ter a vlan voip para todos os telefones? Ou ? Entender o switching dos telefones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,13 +188,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -176,9 +221,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -199,6 +248,24 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -551,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,7 +648,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E1" t="s">
@@ -613,7 +680,7 @@
       <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="1">
@@ -643,7 +710,7 @@
       <c r="C3" s="1">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="1">
@@ -673,7 +740,7 @@
       <c r="C4" s="1">
         <v>30</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>20</v>
       </c>
       <c r="E4" s="1">
@@ -697,7 +764,7 @@
       <c r="C5" s="1">
         <v>40</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E5" s="1">
@@ -721,7 +788,7 @@
       <c r="C6" s="1">
         <v>50</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>8</v>
       </c>
       <c r="E6" s="1">
@@ -745,7 +812,7 @@
       <c r="C7" s="1">
         <v>60</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>10</v>
       </c>
       <c r="E7" s="1">
@@ -769,7 +836,7 @@
       <c r="C8" s="1">
         <v>70</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="1">
@@ -793,7 +860,7 @@
       <c r="C9" s="1">
         <v>80</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="1">
@@ -817,7 +884,7 @@
       <c r="C10" s="1">
         <v>99</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <v>16</v>
       </c>
       <c r="E10" s="1">
@@ -832,15 +899,67 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
       <c r="G11" s="1" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>